--- a/output/application_overview/application_overview.xlsx
+++ b/output/application_overview/application_overview.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,25 +434,33 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Datasphere</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Business Application</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Application Name</t>
+          <t>Datasphere</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Application Categories</t>
+          <t>Business Application</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Datasphere</t>
+          <t>Power BI on Cloud</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -464,7 +472,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Datasphere</t>
+          <t>Power BI on Cloud</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -476,7 +484,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Power BI on Cloud</t>
+          <t>Power BI - Report Server (103.89)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -488,19 +496,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Power BI on Cloud</t>
+          <t>SFTP Server (.28)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Business Application</t>
+          <t>Infrastructure Application</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Power BI - Report Server (103.89)</t>
+          <t>Zoom</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -512,43 +520,43 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SFTP Server (.28)</t>
+          <t>New KM</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Infrastructure Application</t>
+          <t>Business Application</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Zoom</t>
+          <t>CRM Portal BSSS-001</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Business Application</t>
+          <t>Developer Tools / Tools</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>New KM</t>
+          <t>Mobile Gateway BCP-002</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Business Application</t>
+          <t>Security Application</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CRM Portal BSSS-001</t>
+          <t>Analytics BSRC-003</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -560,127 +568,127 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mobile Gateway BCP-002</t>
+          <t>Knowledge Base BSSS-004</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Security Application</t>
+          <t>Developer Tools / Tools</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Analytics BSRC-003</t>
+          <t>ETL Pipeline BSRC-005</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Developer Tools / Tools</t>
+          <t>End User Application</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Knowledge Base BSSS-004</t>
+          <t>Ops Console BCPT-006</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Developer Tools / Tools</t>
+          <t>Business Application</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ETL Pipeline BSRC-005</t>
+          <t>CRM Portal BSSS-007</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>End User Application</t>
+          <t>Security Application</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ops Console BCPT-006</t>
+          <t>Knowledge Base BG-008</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Business Application</t>
+          <t>End User Application</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CRM Portal BSSS-007</t>
+          <t>Analytics BSRR-009</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Security Application</t>
+          <t>Infrastructure Application</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Knowledge Base BG-008</t>
+          <t>Reporting BSSS-010</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>End User Application</t>
+          <t>Security Application</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Analytics BSRR-009</t>
+          <t>ETL Pipeline BCPT-011</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Infrastructure Application</t>
+          <t>Security Application</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Reporting BSSS-010</t>
+          <t>Mobile Gateway BSRR-012</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Security Application</t>
+          <t>Business Application</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ETL Pipeline BCPT-011</t>
+          <t>Analytics BG-013</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Security Application</t>
+          <t>End User Application</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Mobile Gateway BSRR-012</t>
+          <t>API Gateway BCPT-014</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -692,31 +700,31 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Analytics BG-013</t>
+          <t>Mobile Gateway BSRC-015</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>End User Application</t>
+          <t>Security Application</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>API Gateway BCPT-014</t>
+          <t>CRM Portal BCPG-016</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Business Application</t>
+          <t>Infrastructure Application</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Mobile Gateway BSRC-015</t>
+          <t>Integration BSSS-017</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -728,43 +736,43 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CRM Portal BCPG-016</t>
+          <t>DataHub BCPTSG-018</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Infrastructure Application</t>
+          <t>End User Application</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Integration BSSS-017</t>
+          <t>CRM Portal BCPT-019</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Security Application</t>
+          <t>Developer Tools / Tools</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DataHub BCPTSG-018</t>
+          <t>ETL Pipeline BCPG-020</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>End User Application</t>
+          <t>Developer Tools / Tools</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CRM Portal BCPT-019</t>
+          <t>DataHub BCPTSG-021</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -776,31 +784,31 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ETL Pipeline BCPG-020</t>
+          <t>SFTP Server BSRR-022</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Developer Tools / Tools</t>
+          <t>Business Application</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DataHub BCPTSG-021</t>
+          <t>Ops Console BG-023</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Developer Tools / Tools</t>
+          <t>Security Application</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SFTP Server BSRR-022</t>
+          <t>DataHub BSRR-024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -812,55 +820,55 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ops Console BG-023</t>
+          <t>Reporting BSSS-025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Security Application</t>
+          <t>Developer Tools / Tools</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DataHub BSRR-024</t>
+          <t>Mobile Gateway BCP-026</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Business Application</t>
+          <t>Infrastructure Application</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Reporting BSSS-025</t>
+          <t>Analytics BCPTSG-027</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Developer Tools / Tools</t>
+          <t>Infrastructure Application</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Mobile Gateway BCP-026</t>
+          <t>SFTP Server BCPG-028</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Infrastructure Application</t>
+          <t>Developer Tools / Tools</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Analytics BCPTSG-027</t>
+          <t>Reporting BCPG-029</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -872,19 +880,19 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SFTP Server BCPG-028</t>
+          <t>Analytics BCPG-030</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Developer Tools / Tools</t>
+          <t>End User Application</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Reporting BCPG-029</t>
+          <t>DataHub BSRR-031</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -896,43 +904,43 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Analytics BCPG-030</t>
+          <t>Integration BCPT-032</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>End User Application</t>
+          <t>Infrastructure Application</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>DataHub BSRR-031</t>
+          <t>Ops Console BSRC-033</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Infrastructure Application</t>
+          <t>End User Application</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Integration BCPT-032</t>
+          <t>Integration BSSS-034</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Infrastructure Application</t>
+          <t>End User Application</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Ops Console BSRC-033</t>
+          <t>Reporting BSRR-035</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -944,79 +952,79 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Integration BSSS-034</t>
+          <t>CRM Portal BSRR-036</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>End User Application</t>
+          <t>Business Application</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Reporting BSRR-035</t>
+          <t>Reporting BSSS-037</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>End User Application</t>
+          <t>Developer Tools / Tools</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CRM Portal BSRR-036</t>
+          <t>Knowledge Base BSSS-038</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Business Application</t>
+          <t>End User Application</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Reporting BSSS-037</t>
+          <t>Knowledge Base BCPT-039</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Developer Tools / Tools</t>
+          <t>Security Application</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Knowledge Base BSSS-038</t>
+          <t>SFTP Server BSRC-040</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>End User Application</t>
+          <t>Infrastructure Application</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Knowledge Base BCPT-039</t>
+          <t>Ops Console BG-041</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Security Application</t>
+          <t>End User Application</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SFTP Server BSRC-040</t>
+          <t>Mobile Gateway BCP-042</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1028,142 +1036,118 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Ops Console BG-041</t>
+          <t>Ops Console BSRC-043</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>End User Application</t>
+          <t>Security Application</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Mobile Gateway BCP-042</t>
+          <t>Analytics BCPT-044</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Infrastructure Application</t>
+          <t>End User Application</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Ops Console BSRC-043</t>
+          <t>ETL Pipeline BCPT-045</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Security Application</t>
+          <t>Infrastructure Application</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Analytics BCPT-044</t>
+          <t>SFTP Server BG-046</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>End User Application</t>
+          <t>Business Application</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ETL Pipeline BCPT-045</t>
+          <t>Analytics BCP-047</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Infrastructure Application</t>
+          <t>End User Application</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SFTP Server BG-046</t>
+          <t>CRM Portal BCPTSG-048</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Business Application</t>
+          <t>Developer Tools / Tools</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Analytics BCP-047</t>
+          <t>Ops Console BCPG-049</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>End User Application</t>
+          <t>Developer Tools / Tools</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CRM Portal BCPTSG-048</t>
+          <t>Analytics BCPTSG-050</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Developer Tools / Tools</t>
+          <t>Infrastructure Application</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Ops Console BCPG-049</t>
+          <t>Knowledge Base BSRC-051</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Developer Tools / Tools</t>
+          <t>End User Application</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Analytics BCPTSG-050</t>
+          <t>ETL Pipeline BG-052</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>Infrastructure Application</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Knowledge Base BSRC-051</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>End User Application</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>ETL Pipeline BG-052</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
         <is>
           <t>Security Application</t>
         </is>
